--- a/benchmark/model-loading-times.xlsx
+++ b/benchmark/model-loading-times.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vju/repos/opt-mod-lib/benchmark/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vju/repos/alg-mod-rev/benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE02321-7FC6-1B49-9A17-3ED9D118E1DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF44749-DCED-C145-9FF0-0384B5D0B769}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" activeTab="3" xr2:uid="{BF52D1AD-0EA2-C34B-B400-4522B5454CC3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" activeTab="5" xr2:uid="{BF52D1AD-0EA2-C34B-B400-4522B5454CC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="7" r:id="rId1"/>
@@ -27642,8 +27642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD533DE-F9A4-064E-BAAC-ACBE77806471}">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -41372,8 +41372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE868FF-65E0-8C48-8374-B8F1B3E2D53B}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
